--- a/Zeitplan/Form103_Zeitplanung_Fokus-Arbeit.xlsx
+++ b/Zeitplan/Form103_Zeitplanung_Fokus-Arbeit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/julia_juszczynska_ksb-sg_ch/Documents/3/fokusarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="8_{ADD074EF-6BD2-4AA0-9501-B01116310675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3600E326-D2DD-42E2-9B29-28CB60FAC598}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{ADD074EF-6BD2-4AA0-9501-B01116310675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A231F4-4B4F-4356-A596-EC657E749785}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soll_Ist_Vergleich" sheetId="1" r:id="rId1"/>
@@ -558,57 +558,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,11 +579,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="138" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.7"/>
@@ -963,135 +963,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="25.95" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="38">
+      <c r="C2" s="31"/>
+      <c r="D2" s="34">
         <f>D3</f>
         <v>45096</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="38">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="0">H3</f>
         <v>45097</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="38">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="1">L3</f>
         <v>45098</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="38">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34">
         <f t="shared" ref="P2" si="2">P3</f>
         <v>45099</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="38">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="34">
         <f t="shared" ref="T2" si="3">T3</f>
         <v>45100</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="38">
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="34">
         <f t="shared" ref="X2" si="4">X3</f>
         <v>45103</v>
       </c>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="38">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="34">
         <f t="shared" ref="AB2" si="5">AB3</f>
         <v>45104</v>
       </c>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="38">
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="34">
         <f t="shared" ref="AF2" si="6">AF3</f>
         <v>45105</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="38">
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="34">
         <f t="shared" ref="AJ2" si="7">AJ3</f>
         <v>45106</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="38">
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="34">
         <f t="shared" ref="AN2" si="8">AN3</f>
         <v>45107</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="40"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="36"/>
     </row>
     <row r="3" spans="1:44" ht="9.75" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="41">
         <v>45096</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="AQ3" s="43"/>
     </row>
     <row r="4" spans="1:44" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1292,13 +1292,13 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="39">
         <v>1</v>
       </c>
       <c r="D5" s="10"/>
@@ -1346,9 +1346,9 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1392,14 +1392,14 @@
       <c r="AR6" s="25"/>
     </row>
     <row r="7" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="36">
-        <v>1</v>
+      <c r="C7" s="39">
+        <v>1.5</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1444,9 +1444,9 @@
       <c r="AR7" s="25"/>
     </row>
     <row r="8" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1458,7 +1458,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -1490,13 +1490,13 @@
       <c r="AR8" s="25"/>
     </row>
     <row r="9" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="39">
         <v>2.5</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="39">
         <v>3</v>
       </c>
       <c r="D9" s="11"/>
@@ -1542,9 +1542,9 @@
       <c r="AR9" s="25"/>
     </row>
     <row r="10" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1588,13 +1588,13 @@
       <c r="AR10" s="25"/>
     </row>
     <row r="11" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="39">
         <v>4</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="39">
         <v>4</v>
       </c>
       <c r="D11" s="11"/>
@@ -1640,9 +1640,9 @@
       <c r="AR11" s="25"/>
     </row>
     <row r="12" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
@@ -1686,13 +1686,13 @@
       <c r="AR12" s="25"/>
     </row>
     <row r="13" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="39">
         <v>1</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="39">
         <v>1</v>
       </c>
       <c r="D13" s="11"/>
@@ -1738,9 +1738,9 @@
       <c r="AR13" s="25"/>
     </row>
     <row r="14" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1784,13 +1784,13 @@
       <c r="AR14" s="25"/>
     </row>
     <row r="15" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="39">
         <v>6</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="39">
         <v>2</v>
       </c>
       <c r="D15" s="11"/>
@@ -1836,9 +1836,9 @@
       <c r="AR15" s="25"/>
     </row>
     <row r="16" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1882,13 +1882,13 @@
       <c r="AR16" s="25"/>
     </row>
     <row r="17" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="39">
         <v>4</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="39">
         <v>3</v>
       </c>
       <c r="D17" s="11"/>
@@ -1934,9 +1934,9 @@
       <c r="AR17" s="25"/>
     </row>
     <row r="18" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1982,13 +1982,13 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="39">
         <v>2</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="39">
         <v>2</v>
       </c>
       <c r="D19" s="11"/>
@@ -2034,9 +2034,9 @@
       </c>
     </row>
     <row r="20" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -2080,13 +2080,15 @@
       <c r="AR20" s="25"/>
     </row>
     <row r="21" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="39">
         <v>4</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="39">
+        <v>5</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -2130,9 +2132,9 @@
       <c r="AR21" s="25"/>
     </row>
     <row r="22" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2141,8 +2143,8 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -2176,13 +2178,15 @@
       <c r="AR22" s="25"/>
     </row>
     <row r="23" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="39">
         <v>3.5</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="39">
+        <v>2.5</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -2226,9 +2230,9 @@
       <c r="AR23" s="25"/>
     </row>
     <row r="24" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -2239,7 +2243,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="14"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -2274,13 +2278,13 @@
       </c>
     </row>
     <row r="25" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="39">
         <v>2</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -2326,9 +2330,9 @@
       </c>
     </row>
     <row r="26" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2372,13 +2376,13 @@
       <c r="AR26" s="25"/>
     </row>
     <row r="27" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="39">
         <v>2</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2424,9 +2428,9 @@
       </c>
     </row>
     <row r="28" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2472,13 +2476,13 @@
       </c>
     </row>
     <row r="29" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="39">
         <v>2</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2522,9 +2526,9 @@
       <c r="AR29" s="25"/>
     </row>
     <row r="30" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -2568,13 +2572,13 @@
       <c r="AR30" s="25"/>
     </row>
     <row r="31" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="39">
         <v>2</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2618,9 +2622,9 @@
       <c r="AR31" s="25"/>
     </row>
     <row r="32" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -2664,13 +2668,13 @@
       <c r="AR32" s="25"/>
     </row>
     <row r="33" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="39">
         <v>2</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -2714,9 +2718,9 @@
       <c r="AR33" s="25"/>
     </row>
     <row r="34" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2760,13 +2764,13 @@
       <c r="AR34" s="25"/>
     </row>
     <row r="35" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="39">
         <v>2</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -2810,9 +2814,9 @@
       <c r="AR35" s="25"/>
     </row>
     <row r="36" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2856,13 +2860,13 @@
       <c r="AR36" s="25"/>
     </row>
     <row r="37" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="39">
         <v>2</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -2906,9 +2910,9 @@
       <c r="AR37" s="25"/>
     </row>
     <row r="38" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2952,13 +2956,13 @@
       <c r="AR38" s="25"/>
     </row>
     <row r="39" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="39">
         <v>2</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -3002,9 +3006,9 @@
       <c r="AR39" s="25"/>
     </row>
     <row r="40" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -3048,13 +3052,13 @@
       <c r="AR40" s="25"/>
     </row>
     <row r="41" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="39">
         <v>2</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -3098,9 +3102,9 @@
       <c r="AR41" s="25"/>
     </row>
     <row r="42" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -3144,13 +3148,13 @@
       <c r="AR42" s="25"/>
     </row>
     <row r="43" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="39">
         <v>2</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -3194,9 +3198,9 @@
       <c r="AR43" s="25"/>
     </row>
     <row r="44" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -3240,13 +3244,13 @@
       <c r="AR44" s="25"/>
     </row>
     <row r="45" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="39">
         <v>2</v>
       </c>
-      <c r="C45" s="36"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -3290,9 +3294,9 @@
       <c r="AR45" s="25"/>
     </row>
     <row r="46" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -3338,13 +3342,13 @@
       </c>
     </row>
     <row r="47" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="39">
         <v>4</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -3390,9 +3394,9 @@
       </c>
     </row>
     <row r="48" spans="1:44" ht="9" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3436,13 +3440,13 @@
       <c r="AR48" s="25"/>
     </row>
     <row r="49" spans="1:44" ht="9" customHeight="1">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="39">
         <v>6</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -3486,9 +3490,9 @@
       <c r="AR49" s="25"/>
     </row>
     <row r="50" spans="1:44" ht="9" customHeight="1" thickBot="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -3534,13 +3538,13 @@
       </c>
     </row>
     <row r="51" spans="1:44" ht="9" customHeight="1" thickTop="1">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="39">
         <v>4</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -3586,9 +3590,9 @@
       </c>
     </row>
     <row r="52" spans="1:44" ht="9" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -3634,16 +3638,16 @@
       </c>
     </row>
     <row r="53" spans="1:44" ht="9" customHeight="1">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="39">
         <f>80-SUM(B5:B52)</f>
         <v>11</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="39">
         <f>80-SUM(C5:C52)</f>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -3687,9 +3691,9 @@
       <c r="AQ53" s="11"/>
     </row>
     <row r="54" spans="1:44" ht="9" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -3732,62 +3736,62 @@
       <c r="AQ54" s="11"/>
     </row>
     <row r="55" spans="1:44" ht="10.199999999999999" customHeight="1">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="45">
         <f>SUM(B5:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="47">
         <f>SUM(C5:C54)</f>
         <v>80</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="35"/>
-      <c r="AQ55" s="35"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="50"/>
+      <c r="AL55" s="50"/>
+      <c r="AM55" s="50"/>
+      <c r="AN55" s="50"/>
+      <c r="AO55" s="50"/>
+      <c r="AP55" s="50"/>
+      <c r="AQ55" s="50"/>
     </row>
     <row r="56" spans="1:44">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -3867,84 +3871,6 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
@@ -3969,6 +3895,84 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3992,207 +3996,207 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.7"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="38">
+      <c r="C2" s="31"/>
+      <c r="D2" s="34">
         <f>D3</f>
         <v>45096</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="38">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="0">H3</f>
         <v>45097</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="38">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="1">L3</f>
         <v>45098</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="38">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="34">
         <f t="shared" ref="P2" si="2">P3</f>
         <v>45099</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="38">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="34">
         <f t="shared" ref="T2" si="3">T3</f>
         <v>45100</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="38">
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="34">
         <f t="shared" ref="X2" si="4">X3</f>
         <v>45103</v>
       </c>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="38">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="34">
         <f t="shared" ref="AB2" si="5">AB3</f>
         <v>45104</v>
       </c>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="38">
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="34">
         <f t="shared" ref="AF2" si="6">AF3</f>
         <v>45105</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="38">
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="34">
         <f t="shared" ref="AJ2" si="7">AJ3</f>
         <v>45106</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="38">
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="34">
         <f t="shared" ref="AN2" si="8">AN3</f>
         <v>45107</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="51"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="52"/>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="41">
         <v>45096</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="41">
         <f>D3+1</f>
         <v>45097</v>
       </c>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="52"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="41">
         <f t="shared" ref="L3" si="9">H3+1</f>
         <v>45098</v>
       </c>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
-      <c r="O3" s="52"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="41">
         <f t="shared" ref="P3" si="10">L3+1</f>
         <v>45099</v>
       </c>
       <c r="Q3" s="42"/>
       <c r="R3" s="42"/>
-      <c r="S3" s="52"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="41">
         <f t="shared" ref="T3" si="11">P3+1</f>
         <v>45100</v>
       </c>
       <c r="U3" s="42"/>
       <c r="V3" s="42"/>
-      <c r="W3" s="52"/>
+      <c r="W3" s="51"/>
       <c r="X3" s="41">
         <f>T3+3</f>
         <v>45103</v>
       </c>
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
-      <c r="AA3" s="52"/>
+      <c r="AA3" s="51"/>
       <c r="AB3" s="41">
         <f>X3+1</f>
         <v>45104</v>
       </c>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
-      <c r="AE3" s="52"/>
+      <c r="AE3" s="51"/>
       <c r="AF3" s="41">
         <f t="shared" ref="AF3" si="12">AB3+1</f>
         <v>45105</v>
       </c>
       <c r="AG3" s="42"/>
       <c r="AH3" s="42"/>
-      <c r="AI3" s="52"/>
+      <c r="AI3" s="51"/>
       <c r="AJ3" s="41">
         <f t="shared" ref="AJ3" si="13">AF3+1</f>
         <v>45106</v>
       </c>
       <c r="AK3" s="42"/>
       <c r="AL3" s="42"/>
-      <c r="AM3" s="52"/>
+      <c r="AM3" s="51"/>
       <c r="AN3" s="41">
         <f t="shared" ref="AN3" si="14">AJ3+1</f>
         <v>45107</v>
       </c>
       <c r="AO3" s="42"/>
       <c r="AP3" s="42"/>
-      <c r="AQ3" s="52"/>
+      <c r="AQ3" s="51"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="46"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4321,13 +4325,13 @@
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="39">
         <v>2</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
       <c r="D5" s="10"/>
@@ -4372,9 +4376,9 @@
       <c r="AQ5" s="20"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="29"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4417,13 +4421,13 @@
       <c r="AQ6" s="20"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="39">
         <v>5</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="39">
         <v>2.75</v>
       </c>
       <c r="D7" s="11"/>
@@ -4468,9 +4472,9 @@
       <c r="AQ7" s="21"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="29"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4513,13 +4517,13 @@
       <c r="AQ8" s="22"/>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="39">
         <v>2</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="39">
         <v>2.25</v>
       </c>
       <c r="D9" s="11"/>
@@ -4564,9 +4568,9 @@
       <c r="AQ9" s="20"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="29"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
       <c r="F10" s="11"/>
@@ -4609,13 +4613,13 @@
       <c r="AQ10" s="20"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="39">
         <v>4</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="39">
         <v>4</v>
       </c>
       <c r="D11" s="11"/>
@@ -4660,9 +4664,9 @@
       <c r="AQ11" s="23"/>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="29"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
@@ -4705,13 +4709,13 @@
       <c r="AQ12" s="22"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="39">
         <v>1</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="39">
         <v>1</v>
       </c>
       <c r="D13" s="11"/>
@@ -4756,9 +4760,9 @@
       <c r="AQ13" s="20"/>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="29"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -4801,13 +4805,13 @@
       <c r="AQ14" s="20"/>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="39">
         <v>6</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4850,9 +4854,9 @@
       <c r="AQ15" s="20"/>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="29"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -4895,13 +4899,13 @@
       <c r="AQ16" s="20"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="39">
         <v>2</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -4944,9 +4948,9 @@
       <c r="AQ17" s="20"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="29"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -4989,13 +4993,13 @@
       <c r="AQ18" s="20"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="39">
         <v>10</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="39">
         <v>10</v>
       </c>
       <c r="D19" s="11"/>
@@ -5040,9 +5044,9 @@
       <c r="AQ19" s="20"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="29"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -5085,13 +5089,13 @@
       <c r="AQ20" s="20"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -5134,9 +5138,9 @@
       <c r="AQ21" s="20"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="29"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -5179,13 +5183,13 @@
       <c r="AQ22" s="20"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="39">
         <v>2</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -5228,9 +5232,9 @@
       <c r="AQ23" s="20"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="29"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -5273,13 +5277,13 @@
       <c r="AQ24" s="20"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="39">
         <v>2</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -5322,9 +5326,9 @@
       <c r="AQ25" s="20"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="29"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -5367,13 +5371,13 @@
       <c r="AQ26" s="20"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="39">
         <v>2</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -5416,9 +5420,9 @@
       <c r="AQ27" s="20"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="29"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -5461,13 +5465,13 @@
       <c r="AQ28" s="20"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="39">
         <v>2</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -5510,9 +5514,9 @@
       <c r="AQ29" s="20"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="29"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -5555,13 +5559,13 @@
       <c r="AQ30" s="20"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="39">
         <v>2</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -5604,9 +5608,9 @@
       <c r="AQ31" s="20"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="29"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -5649,13 +5653,13 @@
       <c r="AQ32" s="20"/>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="39">
         <v>2</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -5698,9 +5702,9 @@
       <c r="AQ33" s="20"/>
     </row>
     <row r="34" spans="1:43">
-      <c r="A34" s="29"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -5743,13 +5747,13 @@
       <c r="AQ34" s="20"/>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="39">
         <v>2</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -5792,9 +5796,9 @@
       <c r="AQ35" s="20"/>
     </row>
     <row r="36" spans="1:43">
-      <c r="A36" s="29"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -5837,13 +5841,13 @@
       <c r="AQ36" s="20"/>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="39">
         <v>2</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -5886,9 +5890,9 @@
       <c r="AQ37" s="20"/>
     </row>
     <row r="38" spans="1:43">
-      <c r="A38" s="29"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -5931,13 +5935,13 @@
       <c r="AQ38" s="20"/>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="39">
         <v>2</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -5980,9 +5984,9 @@
       <c r="AQ39" s="20"/>
     </row>
     <row r="40" spans="1:43">
-      <c r="A40" s="29"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -6025,13 +6029,13 @@
       <c r="AQ40" s="20"/>
     </row>
     <row r="41" spans="1:43">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="39">
         <v>2</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -6074,9 +6078,9 @@
       <c r="AQ41" s="20"/>
     </row>
     <row r="42" spans="1:43">
-      <c r="A42" s="29"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -6119,13 +6123,13 @@
       <c r="AQ42" s="20"/>
     </row>
     <row r="43" spans="1:43">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="39">
         <v>4</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -6168,9 +6172,9 @@
       <c r="AQ43" s="20"/>
     </row>
     <row r="44" spans="1:43">
-      <c r="A44" s="29"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -6213,11 +6217,11 @@
       <c r="AQ44" s="20"/>
     </row>
     <row r="45" spans="1:43">
-      <c r="A45" s="28"/>
-      <c r="B45" s="36">
+      <c r="A45" s="37"/>
+      <c r="B45" s="39">
         <v>2</v>
       </c>
-      <c r="C45" s="36"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -6260,9 +6264,9 @@
       <c r="AQ45" s="20"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="29"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -6305,11 +6309,11 @@
       <c r="AQ46" s="20"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="28"/>
-      <c r="B47" s="36">
+      <c r="A47" s="37"/>
+      <c r="B47" s="39">
         <v>2</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -6352,9 +6356,9 @@
       <c r="AQ47" s="20"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="29"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -6397,13 +6401,13 @@
       <c r="AQ48" s="20"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="39">
         <v>4</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -6446,9 +6450,9 @@
       <c r="AQ49" s="20"/>
     </row>
     <row r="50" spans="1:43">
-      <c r="A50" s="29"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -6491,13 +6495,13 @@
       <c r="AQ50" s="20"/>
     </row>
     <row r="51" spans="1:43">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="39">
         <v>2</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -6540,9 +6544,9 @@
       <c r="AQ51" s="20"/>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="29"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -6585,14 +6589,14 @@
       <c r="AQ52" s="20"/>
     </row>
     <row r="53" spans="1:43">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="39">
         <f>80-SUM(B5:B52)</f>
         <v>12</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="39">
         <f>80-SUM(C5:C52)</f>
         <v>58</v>
       </c>
@@ -6638,9 +6642,9 @@
       <c r="AQ53" s="20"/>
     </row>
     <row r="54" spans="1:43">
-      <c r="A54" s="29"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -6683,62 +6687,62 @@
       <c r="AQ54" s="20"/>
     </row>
     <row r="55" spans="1:43">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="45">
         <f>SUM(B5:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="47">
         <f>SUM(C5:C54)</f>
         <v>80</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="35"/>
-      <c r="AM55" s="35"/>
-      <c r="AN55" s="35"/>
-      <c r="AO55" s="35"/>
-      <c r="AP55" s="35"/>
-      <c r="AQ55" s="35"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="50"/>
+      <c r="AL55" s="50"/>
+      <c r="AM55" s="50"/>
+      <c r="AN55" s="50"/>
+      <c r="AO55" s="50"/>
+      <c r="AP55" s="50"/>
+      <c r="AQ55" s="50"/>
     </row>
     <row r="56" spans="1:43">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -6782,88 +6786,6 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:AQ55"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C3"/>
@@ -6884,6 +6806,88 @@
     <mergeCell ref="T3:W3"/>
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:AQ55"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7074,15 +7078,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="8954e40e-077f-4387-b431-d73f20605283" xsi:nil="true"/>
@@ -7091,6 +7086,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7113,14 +7117,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B6E564-1E79-431C-9436-3A4948972738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D39655D-C0DE-46EF-8BCD-29A3340F44CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7129,4 +7125,12 @@
     <ds:schemaRef ds:uri="11bb29c7-59b4-42b6-aca7-8a3f7a76d6d8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B6E564-1E79-431C-9436-3A4948972738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Zeitplan/Form103_Zeitplanung_Fokus-Arbeit.xlsx
+++ b/Zeitplan/Form103_Zeitplanung_Fokus-Arbeit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/julia_juszczynska_ksb-sg_ch/Documents/3/fokusarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bldsg-my.sharepoint.com/personal/julia_juszczynska_ksb-sg_ch/Documents/3/fokusarbeit/plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="8_{ADD074EF-6BD2-4AA0-9501-B01116310675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A231F4-4B4F-4356-A596-EC657E749785}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{ADD074EF-6BD2-4AA0-9501-B01116310675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B3303E-C25C-45F2-9C55-420FB54B58BC}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soll_Ist_Vergleich" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Vorlage Projektplanung Fokus-Arbeit</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -558,6 +561,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,62 +633,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,7 +953,8 @@
   <dimension ref="A1:AR70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+      <pane ySplit="2040" topLeftCell="A16" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.7"/>
@@ -963,135 +967,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="25.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="34">
+      <c r="C2" s="48"/>
+      <c r="D2" s="38">
         <f>D3</f>
         <v>45096</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="34">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="0">H3</f>
         <v>45097</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="1">L3</f>
         <v>45098</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="34">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="38">
         <f t="shared" ref="P2" si="2">P3</f>
         <v>45099</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="34">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="38">
         <f t="shared" ref="T2" si="3">T3</f>
         <v>45100</v>
       </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="34">
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="38">
         <f t="shared" ref="X2" si="4">X3</f>
         <v>45103</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="34">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="38">
         <f t="shared" ref="AB2" si="5">AB3</f>
         <v>45104</v>
       </c>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="34">
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="38">
         <f t="shared" ref="AF2" si="6">AF3</f>
         <v>45105</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="34">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="38">
         <f t="shared" ref="AJ2" si="7">AJ3</f>
         <v>45106</v>
       </c>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="34">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="38">
         <f t="shared" ref="AN2" si="8">AN3</f>
         <v>45107</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="36"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40"/>
     </row>
     <row r="3" spans="1:44" ht="9.75" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="41">
         <v>45096</v>
       </c>
@@ -1163,7 +1167,7 @@
       <c r="AQ3" s="43"/>
     </row>
     <row r="4" spans="1:44" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1292,13 +1296,13 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A5" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="39">
+      <c r="A5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="36">
         <v>1</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
       <c r="D5" s="10"/>
@@ -1346,9 +1350,9 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1392,14 +1396,14 @@
       <c r="AR6" s="25"/>
     </row>
     <row r="7" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="36">
         <v>5</v>
       </c>
-      <c r="C7" s="39">
-        <v>1.5</v>
+      <c r="C7" s="36">
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1444,9 +1448,9 @@
       <c r="AR7" s="25"/>
     </row>
     <row r="8" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1462,7 +1466,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="13"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
@@ -1490,13 +1494,13 @@
       <c r="AR8" s="25"/>
     </row>
     <row r="9" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="36">
         <v>2.5</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="36">
         <v>3</v>
       </c>
       <c r="D9" s="11"/>
@@ -1542,9 +1546,9 @@
       <c r="AR9" s="25"/>
     </row>
     <row r="10" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1588,13 +1592,13 @@
       <c r="AR10" s="25"/>
     </row>
     <row r="11" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="36">
         <v>4</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="36">
         <v>4</v>
       </c>
       <c r="D11" s="11"/>
@@ -1640,9 +1644,9 @@
       <c r="AR11" s="25"/>
     </row>
     <row r="12" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
@@ -1686,13 +1690,13 @@
       <c r="AR12" s="25"/>
     </row>
     <row r="13" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="36">
         <v>1</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="36">
         <v>1</v>
       </c>
       <c r="D13" s="11"/>
@@ -1738,9 +1742,9 @@
       <c r="AR13" s="25"/>
     </row>
     <row r="14" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1784,13 +1788,13 @@
       <c r="AR14" s="25"/>
     </row>
     <row r="15" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="36">
         <v>6</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <v>2</v>
       </c>
       <c r="D15" s="11"/>
@@ -1836,9 +1840,9 @@
       <c r="AR15" s="25"/>
     </row>
     <row r="16" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1882,13 +1886,13 @@
       <c r="AR16" s="25"/>
     </row>
     <row r="17" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="36">
         <v>4</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="36">
         <v>3</v>
       </c>
       <c r="D17" s="11"/>
@@ -1934,9 +1938,9 @@
       <c r="AR17" s="25"/>
     </row>
     <row r="18" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1982,13 +1986,13 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="36">
         <v>2</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="36">
         <v>2</v>
       </c>
       <c r="D19" s="11"/>
@@ -2034,9 +2038,9 @@
       </c>
     </row>
     <row r="20" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -2080,13 +2084,13 @@
       <c r="AR20" s="25"/>
     </row>
     <row r="21" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="36">
         <v>4</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="36">
         <v>5</v>
       </c>
       <c r="D21" s="11"/>
@@ -2132,9 +2136,9 @@
       <c r="AR21" s="25"/>
     </row>
     <row r="22" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2178,13 +2182,13 @@
       <c r="AR22" s="25"/>
     </row>
     <row r="23" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="36">
         <v>3.5</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="36">
         <v>2.5</v>
       </c>
       <c r="D23" s="11"/>
@@ -2230,9 +2234,9 @@
       <c r="AR23" s="25"/>
     </row>
     <row r="24" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -2278,13 +2282,15 @@
       </c>
     </row>
     <row r="25" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="36">
         <v>2</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="36">
+        <v>3</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -2330,9 +2336,9 @@
       </c>
     </row>
     <row r="26" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2345,7 +2351,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="P26" s="13"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -2376,13 +2382,15 @@
       <c r="AR26" s="25"/>
     </row>
     <row r="27" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="36">
         <v>2</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="36">
+        <v>2</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2428,9 +2436,9 @@
       </c>
     </row>
     <row r="28" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2476,13 +2484,15 @@
       </c>
     </row>
     <row r="29" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="36">
         <v>2</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C29" s="36">
+        <v>2</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2526,9 +2536,9 @@
       <c r="AR29" s="25"/>
     </row>
     <row r="30" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -2543,7 +2553,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
+      <c r="R30" s="13"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
@@ -2572,13 +2582,13 @@
       <c r="AR30" s="25"/>
     </row>
     <row r="31" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="36">
         <v>2</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2622,9 +2632,9 @@
       <c r="AR31" s="25"/>
     </row>
     <row r="32" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -2668,13 +2678,13 @@
       <c r="AR32" s="25"/>
     </row>
     <row r="33" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="36">
         <v>2</v>
       </c>
-      <c r="C33" s="39"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -2718,9 +2728,9 @@
       <c r="AR33" s="25"/>
     </row>
     <row r="34" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2764,13 +2774,13 @@
       <c r="AR34" s="25"/>
     </row>
     <row r="35" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="36">
         <v>2</v>
       </c>
-      <c r="C35" s="39"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -2814,9 +2824,9 @@
       <c r="AR35" s="25"/>
     </row>
     <row r="36" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2860,13 +2870,13 @@
       <c r="AR36" s="25"/>
     </row>
     <row r="37" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="36">
         <v>2</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -2910,9 +2920,9 @@
       <c r="AR37" s="25"/>
     </row>
     <row r="38" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2956,13 +2966,13 @@
       <c r="AR38" s="25"/>
     </row>
     <row r="39" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="36">
         <v>2</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -3006,9 +3016,9 @@
       <c r="AR39" s="25"/>
     </row>
     <row r="40" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -3052,13 +3062,13 @@
       <c r="AR40" s="25"/>
     </row>
     <row r="41" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="36">
         <v>2</v>
       </c>
-      <c r="C41" s="39"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -3102,9 +3112,9 @@
       <c r="AR41" s="25"/>
     </row>
     <row r="42" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -3148,13 +3158,13 @@
       <c r="AR42" s="25"/>
     </row>
     <row r="43" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="36">
         <v>2</v>
       </c>
-      <c r="C43" s="39"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -3198,9 +3208,9 @@
       <c r="AR43" s="25"/>
     </row>
     <row r="44" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -3244,13 +3254,13 @@
       <c r="AR44" s="25"/>
     </row>
     <row r="45" spans="1:44" ht="8.6999999999999993" customHeight="1">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="36">
         <v>2</v>
       </c>
-      <c r="C45" s="39"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -3294,9 +3304,9 @@
       <c r="AR45" s="25"/>
     </row>
     <row r="46" spans="1:44" ht="8.6999999999999993" customHeight="1" thickBot="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -3342,13 +3352,13 @@
       </c>
     </row>
     <row r="47" spans="1:44" ht="8.6999999999999993" customHeight="1" thickTop="1">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="39">
+      <c r="B47" s="36">
         <v>4</v>
       </c>
-      <c r="C47" s="39"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -3394,9 +3404,9 @@
       </c>
     </row>
     <row r="48" spans="1:44" ht="9" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3440,13 +3450,13 @@
       <c r="AR48" s="25"/>
     </row>
     <row r="49" spans="1:44" ht="9" customHeight="1">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="39">
+      <c r="B49" s="36">
         <v>6</v>
       </c>
-      <c r="C49" s="39"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -3490,9 +3500,9 @@
       <c r="AR49" s="25"/>
     </row>
     <row r="50" spans="1:44" ht="9" customHeight="1" thickBot="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -3538,13 +3548,13 @@
       </c>
     </row>
     <row r="51" spans="1:44" ht="9" customHeight="1" thickTop="1">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="36">
         <v>4</v>
       </c>
-      <c r="C51" s="39"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -3590,9 +3600,9 @@
       </c>
     </row>
     <row r="52" spans="1:44" ht="9" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -3638,16 +3648,16 @@
       </c>
     </row>
     <row r="53" spans="1:44" ht="9" customHeight="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="36">
         <f>80-SUM(B5:B52)</f>
         <v>11</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="36">
         <f>80-SUM(C5:C52)</f>
-        <v>55</v>
+        <v>47.5</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -3691,9 +3701,9 @@
       <c r="AQ53" s="11"/>
     </row>
     <row r="54" spans="1:44" ht="9" customHeight="1">
-      <c r="A54" s="38"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -3736,62 +3746,62 @@
       <c r="AQ54" s="11"/>
     </row>
     <row r="55" spans="1:44" ht="10.199999999999999" customHeight="1">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="45">
+      <c r="B55" s="30">
         <f>SUM(B5:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="32">
         <f>SUM(C5:C54)</f>
         <v>80</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="50"/>
-      <c r="AK55" s="50"/>
-      <c r="AL55" s="50"/>
-      <c r="AM55" s="50"/>
-      <c r="AN55" s="50"/>
-      <c r="AO55" s="50"/>
-      <c r="AP55" s="50"/>
-      <c r="AQ55" s="50"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="35"/>
+      <c r="AQ55" s="35"/>
     </row>
     <row r="56" spans="1:44">
-      <c r="A56" s="38"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="48"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -3871,6 +3881,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
@@ -3895,84 +3983,6 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3996,207 +4006,207 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.7"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="34">
+      <c r="C2" s="48"/>
+      <c r="D2" s="38">
         <f>D3</f>
         <v>45096</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="34">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="0">H3</f>
         <v>45097</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="34">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="1">L3</f>
         <v>45098</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="34">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="38">
         <f t="shared" ref="P2" si="2">P3</f>
         <v>45099</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="34">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="38">
         <f t="shared" ref="T2" si="3">T3</f>
         <v>45100</v>
       </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="34">
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="38">
         <f t="shared" ref="X2" si="4">X3</f>
         <v>45103</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="34">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="38">
         <f t="shared" ref="AB2" si="5">AB3</f>
         <v>45104</v>
       </c>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="34">
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="38">
         <f t="shared" ref="AF2" si="6">AF3</f>
         <v>45105</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="34">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="38">
         <f t="shared" ref="AJ2" si="7">AJ3</f>
         <v>45106</v>
       </c>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="34">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="38">
         <f t="shared" ref="AN2" si="8">AN3</f>
         <v>45107</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="52"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="51"/>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="28"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="41">
         <v>45096</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="41">
         <f>D3+1</f>
         <v>45097</v>
       </c>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="41">
         <f t="shared" ref="L3" si="9">H3+1</f>
         <v>45098</v>
       </c>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
-      <c r="O3" s="51"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="41">
         <f t="shared" ref="P3" si="10">L3+1</f>
         <v>45099</v>
       </c>
       <c r="Q3" s="42"/>
       <c r="R3" s="42"/>
-      <c r="S3" s="51"/>
+      <c r="S3" s="52"/>
       <c r="T3" s="41">
         <f t="shared" ref="T3" si="11">P3+1</f>
         <v>45100</v>
       </c>
       <c r="U3" s="42"/>
       <c r="V3" s="42"/>
-      <c r="W3" s="51"/>
+      <c r="W3" s="52"/>
       <c r="X3" s="41">
         <f>T3+3</f>
         <v>45103</v>
       </c>
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
-      <c r="AA3" s="51"/>
+      <c r="AA3" s="52"/>
       <c r="AB3" s="41">
         <f>X3+1</f>
         <v>45104</v>
       </c>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
-      <c r="AE3" s="51"/>
+      <c r="AE3" s="52"/>
       <c r="AF3" s="41">
         <f t="shared" ref="AF3" si="12">AB3+1</f>
         <v>45105</v>
       </c>
       <c r="AG3" s="42"/>
       <c r="AH3" s="42"/>
-      <c r="AI3" s="51"/>
+      <c r="AI3" s="52"/>
       <c r="AJ3" s="41">
         <f t="shared" ref="AJ3" si="13">AF3+1</f>
         <v>45106</v>
       </c>
       <c r="AK3" s="42"/>
       <c r="AL3" s="42"/>
-      <c r="AM3" s="51"/>
+      <c r="AM3" s="52"/>
       <c r="AN3" s="41">
         <f t="shared" ref="AN3" si="14">AJ3+1</f>
         <v>45107</v>
       </c>
       <c r="AO3" s="42"/>
       <c r="AP3" s="42"/>
-      <c r="AQ3" s="51"/>
+      <c r="AQ3" s="52"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="29"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -4325,13 +4335,13 @@
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <v>2</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="36">
         <v>2</v>
       </c>
       <c r="D5" s="10"/>
@@ -4376,9 +4386,9 @@
       <c r="AQ5" s="20"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4421,13 +4431,13 @@
       <c r="AQ6" s="20"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="36">
         <v>5</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="36">
         <v>2.75</v>
       </c>
       <c r="D7" s="11"/>
@@ -4472,9 +4482,9 @@
       <c r="AQ7" s="21"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="38"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4517,13 +4527,13 @@
       <c r="AQ8" s="22"/>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="36">
         <v>2</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="36">
         <v>2.25</v>
       </c>
       <c r="D9" s="11"/>
@@ -4568,9 +4578,9 @@
       <c r="AQ9" s="20"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="38"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
       <c r="F10" s="11"/>
@@ -4613,13 +4623,13 @@
       <c r="AQ10" s="20"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="36">
         <v>4</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="36">
         <v>4</v>
       </c>
       <c r="D11" s="11"/>
@@ -4664,9 +4674,9 @@
       <c r="AQ11" s="23"/>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
@@ -4709,13 +4719,13 @@
       <c r="AQ12" s="22"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="36">
         <v>1</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="36">
         <v>1</v>
       </c>
       <c r="D13" s="11"/>
@@ -4760,9 +4770,9 @@
       <c r="AQ13" s="20"/>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -4805,13 +4815,13 @@
       <c r="AQ14" s="20"/>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="36">
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4854,9 +4864,9 @@
       <c r="AQ15" s="20"/>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -4899,13 +4909,13 @@
       <c r="AQ16" s="20"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="36">
         <v>2</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -4948,9 +4958,9 @@
       <c r="AQ17" s="20"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="38"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -4993,13 +5003,13 @@
       <c r="AQ18" s="20"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="36">
         <v>10</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="36">
         <v>10</v>
       </c>
       <c r="D19" s="11"/>
@@ -5044,9 +5054,9 @@
       <c r="AQ19" s="20"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="38"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -5089,13 +5099,13 @@
       <c r="AQ20" s="20"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="36">
         <v>2</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -5138,9 +5148,9 @@
       <c r="AQ21" s="20"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="38"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -5183,13 +5193,13 @@
       <c r="AQ22" s="20"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="36">
         <v>2</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -5232,9 +5242,9 @@
       <c r="AQ23" s="20"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -5277,13 +5287,13 @@
       <c r="AQ24" s="20"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="36">
         <v>2</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -5326,9 +5336,9 @@
       <c r="AQ25" s="20"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="38"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -5371,13 +5381,13 @@
       <c r="AQ26" s="20"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="36">
         <v>2</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -5420,9 +5430,9 @@
       <c r="AQ27" s="20"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="38"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -5465,13 +5475,13 @@
       <c r="AQ28" s="20"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="36">
         <v>2</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -5514,9 +5524,9 @@
       <c r="AQ29" s="20"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="38"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -5559,13 +5569,13 @@
       <c r="AQ30" s="20"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="36">
         <v>2</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -5608,9 +5618,9 @@
       <c r="AQ31" s="20"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="38"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -5653,13 +5663,13 @@
       <c r="AQ32" s="20"/>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="36">
         <v>2</v>
       </c>
-      <c r="C33" s="39"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -5702,9 +5712,9 @@
       <c r="AQ33" s="20"/>
     </row>
     <row r="34" spans="1:43">
-      <c r="A34" s="38"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -5747,13 +5757,13 @@
       <c r="AQ34" s="20"/>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="36">
         <v>2</v>
       </c>
-      <c r="C35" s="39"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -5796,9 +5806,9 @@
       <c r="AQ35" s="20"/>
     </row>
     <row r="36" spans="1:43">
-      <c r="A36" s="38"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -5841,13 +5851,13 @@
       <c r="AQ36" s="20"/>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="36">
         <v>2</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -5890,9 +5900,9 @@
       <c r="AQ37" s="20"/>
     </row>
     <row r="38" spans="1:43">
-      <c r="A38" s="38"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -5935,13 +5945,13 @@
       <c r="AQ38" s="20"/>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="36">
         <v>2</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -5984,9 +5994,9 @@
       <c r="AQ39" s="20"/>
     </row>
     <row r="40" spans="1:43">
-      <c r="A40" s="38"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -6029,13 +6039,13 @@
       <c r="AQ40" s="20"/>
     </row>
     <row r="41" spans="1:43">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="36">
         <v>2</v>
       </c>
-      <c r="C41" s="39"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -6078,9 +6088,9 @@
       <c r="AQ41" s="20"/>
     </row>
     <row r="42" spans="1:43">
-      <c r="A42" s="38"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -6123,13 +6133,13 @@
       <c r="AQ42" s="20"/>
     </row>
     <row r="43" spans="1:43">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="36">
         <v>4</v>
       </c>
-      <c r="C43" s="39"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -6172,9 +6182,9 @@
       <c r="AQ43" s="20"/>
     </row>
     <row r="44" spans="1:43">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -6217,11 +6227,11 @@
       <c r="AQ44" s="20"/>
     </row>
     <row r="45" spans="1:43">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39">
+      <c r="A45" s="28"/>
+      <c r="B45" s="36">
         <v>2</v>
       </c>
-      <c r="C45" s="39"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -6264,9 +6274,9 @@
       <c r="AQ45" s="20"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -6309,11 +6319,11 @@
       <c r="AQ46" s="20"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="37"/>
-      <c r="B47" s="39">
+      <c r="A47" s="28"/>
+      <c r="B47" s="36">
         <v>2</v>
       </c>
-      <c r="C47" s="39"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -6356,9 +6366,9 @@
       <c r="AQ47" s="20"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -6401,13 +6411,13 @@
       <c r="AQ48" s="20"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="39">
+      <c r="B49" s="36">
         <v>4</v>
       </c>
-      <c r="C49" s="39"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -6450,9 +6460,9 @@
       <c r="AQ49" s="20"/>
     </row>
     <row r="50" spans="1:43">
-      <c r="A50" s="38"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -6495,13 +6505,13 @@
       <c r="AQ50" s="20"/>
     </row>
     <row r="51" spans="1:43">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="36">
         <v>2</v>
       </c>
-      <c r="C51" s="39"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -6544,9 +6554,9 @@
       <c r="AQ51" s="20"/>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="38"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -6589,14 +6599,14 @@
       <c r="AQ52" s="20"/>
     </row>
     <row r="53" spans="1:43">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="36">
         <f>80-SUM(B5:B52)</f>
         <v>12</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="36">
         <f>80-SUM(C5:C52)</f>
         <v>58</v>
       </c>
@@ -6642,9 +6652,9 @@
       <c r="AQ53" s="20"/>
     </row>
     <row r="54" spans="1:43">
-      <c r="A54" s="38"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -6687,62 +6697,62 @@
       <c r="AQ54" s="20"/>
     </row>
     <row r="55" spans="1:43">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="45">
+      <c r="B55" s="30">
         <f>SUM(B5:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="32">
         <f>SUM(C5:C54)</f>
         <v>80</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="50"/>
-      <c r="AK55" s="50"/>
-      <c r="AL55" s="50"/>
-      <c r="AM55" s="50"/>
-      <c r="AN55" s="50"/>
-      <c r="AO55" s="50"/>
-      <c r="AP55" s="50"/>
-      <c r="AQ55" s="50"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="35"/>
+      <c r="AQ55" s="35"/>
     </row>
     <row r="56" spans="1:43">
-      <c r="A56" s="38"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="48"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -6786,6 +6796,88 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:AQ55"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C3"/>
@@ -6806,88 +6898,6 @@
     <mergeCell ref="T3:W3"/>
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:AQ55"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7078,6 +7088,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="8954e40e-077f-4387-b431-d73f20605283" xsi:nil="true"/>
@@ -7086,15 +7105,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7117,6 +7127,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B6E564-1E79-431C-9436-3A4948972738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D39655D-C0DE-46EF-8BCD-29A3340F44CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7125,12 +7143,4 @@
     <ds:schemaRef ds:uri="11bb29c7-59b4-42b6-aca7-8a3f7a76d6d8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B6E564-1E79-431C-9436-3A4948972738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>